--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3591.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3591.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.461355625069171</v>
+        <v>1.10766077041626</v>
       </c>
       <c r="B1">
-        <v>3.636772233114714</v>
+        <v>3.742244958877563</v>
       </c>
       <c r="C1">
-        <v>4.895224944659447</v>
+        <v>4.376760959625244</v>
       </c>
       <c r="D1">
-        <v>1.416987208190491</v>
+        <v>1.88029682636261</v>
       </c>
       <c r="E1">
-        <v>0.9035768274458494</v>
+        <v>1.315934300422668</v>
       </c>
     </row>
   </sheetData>
